--- a/Acceptance Tests/Lab Manager Testing.xlsx
+++ b/Acceptance Tests/Lab Manager Testing.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lab Worker</t>
   </si>
   <si>
-    <t>Acceptance Testing for Use Case: Insert Client's ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Case: </t>
-  </si>
-  <si>
     <t>Primary Actor:</t>
   </si>
   <si>
@@ -54,82 +48,20 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>ClientFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open "Find Client" window.
-2. Type Client's ID:   12345678
-3. Click OK button.                                                  </t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System checks for valid ID.
-Client found, show Shay Shahar's details, show options to create appointment and cancel appointment.</t>
-  </si>
-  <si>
-    <t>Client is already in DB.</t>
-  </si>
-  <si>
-    <t>ClientNotInDB</t>
-  </si>
-  <si>
-    <t>1. Open "Find Client" window.
-2. Type Client's ID: 99887755
-3. Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System checks for valid ID.
-Client 99887755 is not found in Database.
-System asks to create a new client.</t>
-  </si>
-  <si>
-    <t>Client is not found in DB.</t>
-  </si>
-  <si>
-    <t>MissingFields</t>
-  </si>
-  <si>
-    <t>1. Open "Find Client" window.
-2. Type Client's ID: 
-3. Click OK button</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System reports about "Missing client's ID".
-System asks the dispatcher to insert client's ID.</t>
-  </si>
-  <si>
-    <t>Missing required fields.</t>
-  </si>
-  <si>
-    <t>ConnectionTimeOut</t>
-  </si>
-  <si>
-    <t>1. Open "Find Client" window.</t>
-  </si>
-  <si>
-    <t>System checks if 3 min passed,
-System throws out a warning "Timed Out". System log out.</t>
-  </si>
-  <si>
-    <t>System timeout.</t>
-  </si>
-  <si>
-    <t>ValidateIDFailed</t>
-  </si>
-  <si>
-    <t>System checks that all required fields are filled. System checks for valid ID. System reports for invalid ID input.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System found bad ID input by checking the ID number with IL ID Algorithm. </t>
-  </si>
-  <si>
     <t>Insert Reference Details</t>
+  </si>
+  <si>
+    <t>Use Case:</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Insert Reference Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +87,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,18 +253,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -367,6 +319,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,14 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AJ1:AV14"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="36" max="36" width="28.625" customWidth="1"/>
     <col min="37" max="38" width="9" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="7.25" hidden="1" customWidth="1"/>
@@ -685,134 +654,111 @@
     <col min="48" max="48" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="36:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AU1" s="1" t="s">
+    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="21"/>
+    </row>
+    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="1"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="36:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="AU2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV2" s="3" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="3"/>
+    </row>
+    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="36:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="AU3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="5" t="s">
+      <c r="B4" s="24"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="36:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="5" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="36:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="AU5" s="8" t="s">
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="3"/>
+    </row>
+    <row r="8" spans="1:48" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AV5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="36:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AV8" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="36:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="36:48" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV10" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="36:48" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV11" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="36:48" ht="72" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV12" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="36:48" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV13" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="36:48" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV14" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="AJ9" s="10"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="7"/>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="13"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="11"/>
+    </row>
+    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="11"/>
+    </row>
+    <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="16"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="14"/>
+    </row>
+    <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="16"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="14"/>
+    </row>
+    <row r="14" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="19"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Acceptance Tests/Lab Manager Testing.xlsx
+++ b/Acceptance Tests/Lab Manager Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Lab Worker</t>
   </si>
@@ -55,13 +55,269 @@
   </si>
   <si>
     <t>Acceptance Testing for Use Case: Insert Reference Details</t>
+  </si>
+  <si>
+    <t>Reference Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System checks that all required 
+fields are filled. System checks for 
+Reference with Patient ID , Specialist ID , Date that the user inserted.
+Reference Found, System Open
+"Show details Window". 
+ </t>
+  </si>
+  <si>
+    <t>Reference in DB</t>
+  </si>
+  <si>
+    <t>Reference Not In DB</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled. System checks for 
+Reference with Patient ID , Specialist ID , Date that the user inserted.
+Reference not in DB, System print massage "invalid Reference details"
+System ask to insert Reference 
+Details again</t>
+  </si>
+  <si>
+    <t>Reference not in DB</t>
+  </si>
+  <si>
+    <t>Missing fields</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the field Type Date is missing.
+System ask to fill the missing field
+and try again.</t>
+  </si>
+  <si>
+    <t>Missing Required Fields</t>
+  </si>
+  <si>
+    <t>ConnectionTimeOut</t>
+  </si>
+  <si>
+    <t>System checks if 3 min passed,
+System throws out a warning "Timed Out". System log out.</t>
+  </si>
+  <si>
+    <t>System timeout.</t>
+  </si>
+  <si>
+    <t>View Reference Details</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: View Reference Details</t>
+  </si>
+  <si>
+    <t>Login,Insert Reference Details</t>
+  </si>
+  <si>
+    <t>Login,Insert Reference Details,
+View Reference Details</t>
+  </si>
+  <si>
+    <t>Add Examination Results</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Add Examination Results</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 1004
+Type Date : 1.7.16
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 8888
+Type Date : 1.7.16
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window
+Type Patient ID: 302632195
+Type Specialist ID: 8888
+Type Date : 
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Insert Reference Details" Window</t>
+  </si>
+  <si>
+    <t>Add Examination Result</t>
+  </si>
+  <si>
+    <t>Add Examination Result With Picture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successfully Examination Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Picture
+ Attached</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successfully Examination Added </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Picture
+ Attached</t>
+    </r>
+  </si>
+  <si>
+    <t>Missing Fields</t>
+  </si>
+  <si>
+    <t>System checks that all required 
+fields are filled.System reports that the field Type Details is missing.
+System ask to fill the missing field
+and try again.</t>
+  </si>
+  <si>
+    <t>Open"Add Examination Results" Window</t>
+  </si>
+  <si>
+    <t>Open "Add Examination Results" Window
+Type Details: catheterization, positive
+Press Attach Picture
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Add Examination Results" Window
+Type Details: Upper Respiratory 
+Tract Infection , he has it
+Click OK button</t>
+  </si>
+  <si>
+    <t>Open "Add Examination Results" Window
+Type Details: 
+Click OK button</t>
+  </si>
+  <si>
+    <t>System checks that all required
+fields are filled.
+System Report "Examination Added with the code 90002"</t>
+  </si>
+  <si>
+    <t>System checks that all required
+fields are filled. 
+System Open "Add Picture" Window
+System Report "Picture Attached"
+System Report "Examination Added with the code 90000"</t>
+  </si>
+  <si>
+    <t>Acceptance Testing for Use Case: Add Picture</t>
+  </si>
+  <si>
+    <t>Add Picture</t>
+  </si>
+  <si>
+    <t>Login,Insert Reference Details,
+View Reference Details,  Add Examination Results</t>
+  </si>
+  <si>
+    <t>Open "Add Picture" Window
+Choose picture
+Click OK button</t>
+  </si>
+  <si>
+    <t>Successfully Add Picture</t>
+  </si>
+  <si>
+    <t>Failed to Add Picture</t>
+  </si>
+  <si>
+    <t>Open "Add Picture" Window
+Click OK button</t>
+  </si>
+  <si>
+    <t>System checks if the user chose a 
+picture. The User Chose a Picture
+System report "picture added"
+System close  "Add Picture" Window"
+System open "Add Examination Results" Window</t>
+  </si>
+  <si>
+    <t>Missing Picture</t>
+  </si>
+  <si>
+    <t>System checks if the user chose a 
+picture. The User wasn't choose a picture. 
+System Report "Missing picture"
+System Report "Try again"</t>
+  </si>
+  <si>
+    <t>Open"Add Picture" Window</t>
+  </si>
+  <si>
+    <t>System open "Add Examination
+ Results" window</t>
+  </si>
+  <si>
+    <t>Add Examination Result to Reference</t>
+  </si>
+  <si>
+    <t>Open "View Reference Details" Window
+Press Add Examination Result</t>
+  </si>
+  <si>
+    <t>Open "View Reference Details" Window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +364,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -135,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -262,11 +527,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -319,12 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,6 +626,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV14"/>
+  <dimension ref="A1:AV137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,70 +1000,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="1"/>
     </row>
     <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="3"/>
     </row>
     <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="3"/>
     </row>
     <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="AU5" s="6"/>
       <c r="AV5" s="3"/>
     </row>
     <row r="8" spans="1:48" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="31" t="s">
         <v>9</v>
       </c>
       <c r="AJ9" s="10"/>
@@ -726,25 +1071,73 @@
       <c r="AU9" s="8"/>
       <c r="AV9" s="7"/>
     </row>
-    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ10" s="13"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="11"/>
     </row>
-    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="AJ11" s="13"/>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
       <c r="AV11" s="11"/>
     </row>
-    <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AJ12" s="16"/>
       <c r="AT12" s="15"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="14"/>
     </row>
-    <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="AJ13" s="16"/>
       <c r="AT13" s="18"/>
       <c r="AU13" s="17"/>
@@ -755,10 +1148,315 @@
       <c r="AT14" s="18"/>
       <c r="AU14" s="15"/>
     </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A68" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="27"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="22"/>
+    </row>
+    <row r="91" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
